--- a/data/2020-05-07/texas.xlsx
+++ b/data/2020-05-07/texas.xlsx
@@ -8,32 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1FABF8D-0F76-4CFD-84EC-B3C715180A18}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{67BBBD37-8D2A-4857-B231-F1DFAAC71579}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
     <sheet name="Trends" sheetId="2" r:id="rId2"/>
-    <sheet name="Recoveries" sheetId="3" r:id="rId3"/>
-    <sheet name="RecoveredActive by County" sheetId="4" r:id="rId4"/>
-    <sheet name="Tests" sheetId="5" r:id="rId5"/>
-    <sheet name="Hospitalizations" sheetId="6" r:id="rId6"/>
-    <sheet name="Cases by Age Group" sheetId="7" r:id="rId7"/>
-    <sheet name="Cases by Gender" sheetId="8" r:id="rId8"/>
-    <sheet name="Cases by RaceEthnicity" sheetId="9" r:id="rId9"/>
-    <sheet name="Fatalities by Age Group" sheetId="10" r:id="rId10"/>
-    <sheet name="Fatalities by Gender" sheetId="11" r:id="rId11"/>
-    <sheet name="Fatalities by Race-Ethnicity" sheetId="12" r:id="rId12"/>
+    <sheet name="Recoveries" sheetId="4" r:id="rId3"/>
+    <sheet name="RecoveredActive by County" sheetId="5" r:id="rId4"/>
+    <sheet name="Tests" sheetId="6" r:id="rId5"/>
+    <sheet name="Testing Trends" sheetId="3" r:id="rId6"/>
+    <sheet name="Hospitalizations" sheetId="7" r:id="rId7"/>
+    <sheet name="Cases by Age Group" sheetId="8" r:id="rId8"/>
+    <sheet name="Cases by Gender" sheetId="9" r:id="rId9"/>
+    <sheet name="Cases by RaceEthnicity" sheetId="10" r:id="rId10"/>
+    <sheet name="Fatalities by Age Group" sheetId="11" r:id="rId11"/>
+    <sheet name="Fatalities by Gender" sheetId="12" r:id="rId12"/>
+    <sheet name="Fatalities by Race-Ethnicity" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="179017" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="317">
-  <si>
-    <t>COVID-19 Positive Cases and Fatalities by County as of 5/06 at 10:45AM CST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="320">
+  <si>
+    <t>COVID-19 Positive Cases and Fatalities by County as of 5/07 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
@@ -810,7 +811,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 5/06 at 10:45AM CST</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 5/07 at 10:45AM CST</t>
   </si>
   <si>
     <t>Date</t>
@@ -834,6 +835,12 @@
 Fatalities</t>
   </si>
   <si>
+    <t>Testing and Positivity Rate over Time as of 5/07 at 10:45AM CST</t>
+  </si>
+  <si>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 5/07 at 9:30AM CST</t>
+  </si>
+  <si>
     <t>Recovered</t>
   </si>
   <si>
@@ -843,10 +850,10 @@
     <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 by County as of 5/05 at 9:30AM CST</t>
-  </si>
-  <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 5/06 at 9:30AM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 by County as of 5/06 at 9:30AM CST</t>
+  </si>
+  <si>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 5/07 at 9:30AM CST</t>
   </si>
   <si>
     <t>Location</t>
@@ -864,7 +871,7 @@
     <t>*Unable to deduplicate figures for Commercial labs.</t>
   </si>
   <si>
-    <t>Texas Statewide Hospitalization Data as of 5/06 at 9:30AM CST</t>
+    <t>Texas Statewide Hospitalization Data as of 5/07 at 9:30AM CST</t>
   </si>
   <si>
     <t>Hospital data</t>
@@ -885,7 +892,7 @@
     <t>Available Texas Ventilators</t>
   </si>
   <si>
-    <t>Age of Confirmed Cases as of 5/06 at 9:30 AM CST</t>
+    <t>Age of Confirmed Cases as of 5/07 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Age
@@ -940,10 +947,10 @@
     <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
   </si>
   <si>
-    <t>Completed case investigations received by DSHS =          12,323</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 5/06 at 9:30 AM CST</t>
+    <t>Completed case investigations received by DSHS =          12,533</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 5/07 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Gender</t>
@@ -955,7 +962,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 5/06 at 9:30 AM CST</t>
+    <t>Race/Ethnicity of Confirmed Cases as of 5/07 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Race/Ethnicity</t>
@@ -976,31 +983,39 @@
     <t>White</t>
   </si>
   <si>
-    <t>Age of Confirmed Fatalities as of 5/06 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Completed investigations received by DSHS =          443</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Fatalities as of 5/06 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 5/06 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 5/06 at 9:30AM CST</t>
+    <t>Age of Confirmed Fatalities as of 5/07 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Completed investigations received by DSHS =          449</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Fatalities as of 5/07 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 5/07 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Total
+Tests
+Reported</t>
+  </si>
+  <si>
+    <t>COVID-19
+Positivity Rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="###,##0"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="166" formatCode="##,###,##0"/>
     <numFmt numFmtId="167" formatCode="###,###,###,###,##0"/>
-    <numFmt numFmtId="169" formatCode="##0"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="##0"/>
+    <numFmt numFmtId="169" formatCode="##########.00&quot;%&quot;_);\(##########.00&quot;%&quot;\)"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1094,7 +1109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1113,6 +1128,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1122,7 +1140,13 @@
     <xf numFmtId="167" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1133,18 +1157,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1283,7 +1295,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1294,11 +1306,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1316,7 +1328,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
@@ -1338,7 +1350,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
@@ -1382,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -1426,7 +1438,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C13" s="4">
         <v>2</v>
@@ -1459,7 +1471,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C16" s="4">
         <v>3</v>
@@ -1470,10 +1482,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>1677</v>
+        <v>1761</v>
       </c>
       <c r="C17" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1525,7 +1537,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>570</v>
+        <v>588</v>
       </c>
       <c r="C22" s="4">
         <v>7</v>
@@ -1536,7 +1548,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="C23" s="4">
         <v>17</v>
@@ -1613,7 +1625,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30" s="4">
         <v>0</v>
@@ -1635,10 +1647,10 @@
         <v>33</v>
       </c>
       <c r="B32" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C32" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1646,10 +1658,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="4">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="C33" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1690,7 +1702,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -1701,7 +1713,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
@@ -1767,7 +1779,7 @@
         <v>45</v>
       </c>
       <c r="B44" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" s="4">
         <v>0</v>
@@ -1778,7 +1790,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4">
-        <v>828</v>
+        <v>839</v>
       </c>
       <c r="C45" s="4">
         <v>22</v>
@@ -1811,7 +1823,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="4">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C48" s="4">
         <v>6</v>
@@ -1855,7 +1867,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="4">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C52" s="4">
         <v>2</v>
@@ -1932,10 +1944,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>4623</v>
+        <v>4869</v>
       </c>
       <c r="C59" s="4">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1987,7 +1999,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="4">
-        <v>832</v>
+        <v>846</v>
       </c>
       <c r="C64" s="4">
         <v>22</v>
@@ -2053,7 +2065,7 @@
         <v>71</v>
       </c>
       <c r="B70" s="4">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C70" s="4">
         <v>4</v>
@@ -2075,10 +2087,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="4">
-        <v>1080</v>
+        <v>1119</v>
       </c>
       <c r="C72" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2086,10 +2098,10 @@
         <v>74</v>
       </c>
       <c r="B73" s="4">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C73" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2097,7 +2109,7 @@
         <v>75</v>
       </c>
       <c r="B74" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C74" s="4">
         <v>1</v>
@@ -2119,7 +2131,7 @@
         <v>77</v>
       </c>
       <c r="B76" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C76" s="4">
         <v>1</v>
@@ -2130,7 +2142,7 @@
         <v>78</v>
       </c>
       <c r="B77" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C77" s="4">
         <v>1</v>
@@ -2174,10 +2186,10 @@
         <v>82</v>
       </c>
       <c r="B81" s="4">
-        <v>1245</v>
+        <v>1287</v>
       </c>
       <c r="C81" s="4">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2207,7 +2219,7 @@
         <v>85</v>
       </c>
       <c r="B84" s="4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C84" s="4">
         <v>0</v>
@@ -2229,7 +2241,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="C86" s="4">
         <v>28</v>
@@ -2295,7 +2307,7 @@
         <v>93</v>
       </c>
       <c r="B92" s="4">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C92" s="4">
         <v>0</v>
@@ -2306,7 +2318,7 @@
         <v>94</v>
       </c>
       <c r="B93" s="4">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C93" s="4">
         <v>0</v>
@@ -2317,7 +2329,7 @@
         <v>95</v>
       </c>
       <c r="B94" s="4">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C94" s="4">
         <v>0</v>
@@ -2339,7 +2351,7 @@
         <v>97</v>
       </c>
       <c r="B96" s="4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C96" s="4">
         <v>0</v>
@@ -2350,7 +2362,7 @@
         <v>98</v>
       </c>
       <c r="B97" s="4">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C97" s="4">
         <v>4</v>
@@ -2405,7 +2417,7 @@
         <v>103</v>
       </c>
       <c r="B102" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C102" s="4">
         <v>3</v>
@@ -2416,10 +2428,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>7128</v>
+        <v>7244</v>
       </c>
       <c r="C103" s="4">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2427,7 +2439,7 @@
         <v>105</v>
       </c>
       <c r="B104" s="4">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C104" s="4">
         <v>6</v>
@@ -2482,7 +2494,7 @@
         <v>110</v>
       </c>
       <c r="B109" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C109" s="4">
         <v>0</v>
@@ -2493,7 +2505,7 @@
         <v>111</v>
       </c>
       <c r="B110" s="4">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C110" s="4">
         <v>7</v>
@@ -2515,7 +2527,7 @@
         <v>113</v>
       </c>
       <c r="B112" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C112" s="4">
         <v>1</v>
@@ -2537,7 +2549,7 @@
         <v>115</v>
       </c>
       <c r="B114" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C114" s="4">
         <v>0</v>
@@ -2548,7 +2560,7 @@
         <v>116</v>
       </c>
       <c r="B115" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C115" s="4">
         <v>0</v>
@@ -2592,7 +2604,7 @@
         <v>120</v>
       </c>
       <c r="B119" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C119" s="4">
         <v>0</v>
@@ -2658,7 +2670,7 @@
         <v>126</v>
       </c>
       <c r="B125" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C125" s="4">
         <v>23</v>
@@ -2691,7 +2703,7 @@
         <v>129</v>
       </c>
       <c r="B128" s="4">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C128" s="4">
         <v>4</v>
@@ -2724,7 +2736,7 @@
         <v>132</v>
       </c>
       <c r="B131" s="4">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C131" s="4">
         <v>1</v>
@@ -2735,7 +2747,7 @@
         <v>133</v>
       </c>
       <c r="B132" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C132" s="4">
         <v>0</v>
@@ -2845,7 +2857,7 @@
         <v>143</v>
       </c>
       <c r="B142" s="4">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C142" s="4">
         <v>0</v>
@@ -2856,7 +2868,7 @@
         <v>144</v>
       </c>
       <c r="B143" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C143" s="4">
         <v>0</v>
@@ -2867,7 +2879,7 @@
         <v>145</v>
       </c>
       <c r="B144" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C144" s="4">
         <v>0</v>
@@ -2911,7 +2923,7 @@
         <v>149</v>
       </c>
       <c r="B148" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C148" s="4">
         <v>1</v>
@@ -2977,10 +2989,10 @@
         <v>155</v>
       </c>
       <c r="B154" s="4">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="C154" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2999,7 +3011,7 @@
         <v>157</v>
       </c>
       <c r="B156" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C156" s="4">
         <v>0</v>
@@ -3032,7 +3044,7 @@
         <v>160</v>
       </c>
       <c r="B159" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C159" s="4">
         <v>0</v>
@@ -3098,7 +3110,7 @@
         <v>166</v>
       </c>
       <c r="B165" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C165" s="4">
         <v>2</v>
@@ -3120,10 +3132,10 @@
         <v>168</v>
       </c>
       <c r="B167" s="4">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C167" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3175,7 +3187,7 @@
         <v>173</v>
       </c>
       <c r="B172" s="4">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="C172" s="4">
         <v>15</v>
@@ -3186,7 +3198,7 @@
         <v>174</v>
       </c>
       <c r="B173" s="4">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C173" s="4">
         <v>6</v>
@@ -3219,7 +3231,7 @@
         <v>177</v>
       </c>
       <c r="B176" s="4">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C176" s="4">
         <v>7</v>
@@ -3230,7 +3242,7 @@
         <v>178</v>
       </c>
       <c r="B177" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C177" s="4">
         <v>2</v>
@@ -3263,7 +3275,7 @@
         <v>181</v>
       </c>
       <c r="B180" s="4">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C180" s="4">
         <v>3</v>
@@ -3274,7 +3286,7 @@
         <v>182</v>
       </c>
       <c r="B181" s="4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C181" s="4">
         <v>1</v>
@@ -3296,7 +3308,7 @@
         <v>184</v>
       </c>
       <c r="B183" s="4">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C183" s="4">
         <v>2</v>
@@ -3318,7 +3330,7 @@
         <v>186</v>
       </c>
       <c r="B185" s="4">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C185" s="4">
         <v>3</v>
@@ -3329,7 +3341,7 @@
         <v>187</v>
       </c>
       <c r="B186" s="4">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C186" s="4">
         <v>0</v>
@@ -3340,7 +3352,7 @@
         <v>188</v>
       </c>
       <c r="B187" s="4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C187" s="4">
         <v>0</v>
@@ -3373,10 +3385,10 @@
         <v>191</v>
       </c>
       <c r="B190" s="4">
-        <v>907</v>
+        <v>971</v>
       </c>
       <c r="C190" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3406,7 +3418,7 @@
         <v>194</v>
       </c>
       <c r="B193" s="4">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="C193" s="4">
         <v>3</v>
@@ -3439,7 +3451,7 @@
         <v>197</v>
       </c>
       <c r="B196" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C196" s="4">
         <v>0</v>
@@ -3483,7 +3495,7 @@
         <v>201</v>
       </c>
       <c r="B200" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -3494,7 +3506,7 @@
         <v>202</v>
       </c>
       <c r="B201" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C201" s="4">
         <v>3</v>
@@ -3516,7 +3528,7 @@
         <v>204</v>
       </c>
       <c r="B203" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C203" s="4">
         <v>1</v>
@@ -3527,7 +3539,7 @@
         <v>205</v>
       </c>
       <c r="B204" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C204" s="4">
         <v>0</v>
@@ -3560,7 +3572,7 @@
         <v>208</v>
       </c>
       <c r="B207" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C207" s="4">
         <v>0</v>
@@ -3604,7 +3616,7 @@
         <v>212</v>
       </c>
       <c r="B211" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C211" s="4">
         <v>0</v>
@@ -3615,7 +3627,7 @@
         <v>213</v>
       </c>
       <c r="B212" s="4">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C212" s="4">
         <v>4</v>
@@ -3626,7 +3638,7 @@
         <v>214</v>
       </c>
       <c r="B213" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C213" s="4">
         <v>0</v>
@@ -3637,7 +3649,7 @@
         <v>215</v>
       </c>
       <c r="B214" s="4">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C214" s="4">
         <v>3</v>
@@ -3725,10 +3737,10 @@
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>2686</v>
+        <v>2813</v>
       </c>
       <c r="C222" s="4">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3736,7 +3748,7 @@
         <v>224</v>
       </c>
       <c r="B223" s="4">
-        <v>378</v>
+        <v>206</v>
       </c>
       <c r="C223" s="4">
         <v>6</v>
@@ -3780,7 +3792,7 @@
         <v>228</v>
       </c>
       <c r="B227" s="4">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C227" s="4">
         <v>0</v>
@@ -3791,7 +3803,7 @@
         <v>229</v>
       </c>
       <c r="B228" s="4">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C228" s="4">
         <v>1</v>
@@ -3802,10 +3814,10 @@
         <v>230</v>
       </c>
       <c r="B229" s="4">
-        <v>1876</v>
+        <v>1946</v>
       </c>
       <c r="C229" s="4">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3901,7 +3913,7 @@
         <v>239</v>
       </c>
       <c r="B238" s="4">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="C238" s="4">
         <v>2</v>
@@ -3912,7 +3924,7 @@
         <v>240</v>
       </c>
       <c r="B239" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -3934,7 +3946,7 @@
         <v>242</v>
       </c>
       <c r="B241" s="4">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C241" s="4">
         <v>18</v>
@@ -3945,7 +3957,7 @@
         <v>243</v>
       </c>
       <c r="B242" s="4">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="C242" s="4">
         <v>17</v>
@@ -4000,7 +4012,7 @@
         <v>248</v>
       </c>
       <c r="B247" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C247" s="4">
         <v>1</v>
@@ -4011,10 +4023,10 @@
         <v>249</v>
       </c>
       <c r="B248" s="4">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C248" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4110,10 +4122,10 @@
         <v>258</v>
       </c>
       <c r="B257" s="4">
-        <v>34422</v>
+        <v>35390</v>
       </c>
       <c r="C257" s="4">
-        <v>948</v>
+        <v>973</v>
       </c>
     </row>
   </sheetData>
@@ -4127,220 +4139,364 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B3" s="9">
+        <v>462</v>
+      </c>
+      <c r="C3" s="12">
+        <f>B3/B$9</f>
+        <v>3.6862682518152078E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1896</v>
+      </c>
+      <c r="C4" s="12">
+        <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
+        <v>0.15128061916540333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B5" s="9">
+        <v>4821</v>
+      </c>
+      <c r="C5" s="12">
+        <f t="shared" si="0"/>
+        <v>0.38466448575759993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B6" s="9">
+        <v>87</v>
+      </c>
+      <c r="C6" s="12">
+        <f t="shared" si="0"/>
+        <v>6.9416739806909761E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B7" s="9">
+        <v>3521</v>
+      </c>
+      <c r="C7" s="12">
+        <f t="shared" si="0"/>
+        <v>0.28093832282773479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1746</v>
+      </c>
+      <c r="C8" s="12">
+        <f t="shared" si="0"/>
+        <v>0.13931221575041888</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B9" s="9">
+        <v>12533</v>
+      </c>
+      <c r="C9" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+    </row>
+    <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+  </mergeCells>
+  <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C16"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" customWidth="1"/>
+    <col min="3" max="3" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>283</v>
+      <c r="A2" s="8" t="s">
+        <v>285</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B3" s="9">
-        <v>0</v>
-      </c>
-      <c r="C3" s="16">
+        <v>288</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12">
         <f>B3/B$16</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B4" s="9">
-        <v>0</v>
-      </c>
-      <c r="C4" s="16">
+        <v>289</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B5" s="9">
+        <v>290</v>
+      </c>
+      <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="12">
         <f t="shared" si="0"/>
-        <v>4.5146726862302479E-3</v>
+        <v>4.4543429844097994E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B6" s="9">
+        <v>291</v>
+      </c>
+      <c r="B6" s="10">
         <v>10</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="12">
         <f t="shared" si="0"/>
-        <v>2.2573363431151242E-2</v>
+        <v>2.2271714922048998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B7" s="9">
+        <v>292</v>
+      </c>
+      <c r="B7" s="10">
         <v>9</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="12">
         <f t="shared" si="0"/>
-        <v>2.0316027088036117E-2</v>
+        <v>2.0044543429844099E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B8" s="9">
+        <v>293</v>
+      </c>
+      <c r="B8" s="10">
         <v>20</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="12">
         <f t="shared" si="0"/>
-        <v>4.5146726862302484E-2</v>
+        <v>4.4543429844097995E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B9" s="9">
+        <v>294</v>
+      </c>
+      <c r="B9" s="10">
         <v>46</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="12">
         <f t="shared" si="0"/>
-        <v>0.10383747178329571</v>
+        <v>0.10244988864142539</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B10" s="9">
-        <v>39</v>
-      </c>
-      <c r="C10" s="16">
+        <v>295</v>
+      </c>
+      <c r="B10" s="10">
+        <v>40</v>
+      </c>
+      <c r="C10" s="12">
         <f t="shared" si="0"/>
-        <v>8.8036117381489837E-2</v>
+        <v>8.9086859688195991E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B11" s="9">
-        <v>56</v>
-      </c>
-      <c r="C11" s="16">
+        <v>296</v>
+      </c>
+      <c r="B11" s="10">
+        <v>57</v>
+      </c>
+      <c r="C11" s="12">
         <f t="shared" si="0"/>
-        <v>0.12641083521444696</v>
+        <v>0.12694877505567928</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B12" s="9">
-        <v>40</v>
-      </c>
-      <c r="C12" s="16">
+        <v>297</v>
+      </c>
+      <c r="B12" s="10">
+        <v>41</v>
+      </c>
+      <c r="C12" s="12">
         <f t="shared" si="0"/>
-        <v>9.0293453724604969E-2</v>
+        <v>9.1314031180400893E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B13" s="9">
+        <v>298</v>
+      </c>
+      <c r="B13" s="10">
         <v>42</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="12">
         <f t="shared" si="0"/>
-        <v>9.480812641083522E-2</v>
+        <v>9.3541202672605794E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B14" s="9">
-        <v>177</v>
-      </c>
-      <c r="C14" s="16">
+        <v>299</v>
+      </c>
+      <c r="B14" s="10">
+        <v>180</v>
+      </c>
+      <c r="C14" s="12">
         <f t="shared" si="0"/>
-        <v>0.39954853273137697</v>
+        <v>0.40089086859688194</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B15" s="9">
+        <v>300</v>
+      </c>
+      <c r="B15" s="10">
         <v>2</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="12">
         <f t="shared" si="0"/>
-        <v>4.5146726862302479E-3</v>
+        <v>4.4543429844097994E-3</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B16" s="9">
-        <v>443</v>
-      </c>
-      <c r="C16" s="16">
+      <c r="B16" s="10">
+        <v>449</v>
+      </c>
+      <c r="C16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="A18" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="A19" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4353,102 +4509,102 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C6"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B3" s="9">
-        <v>176</v>
-      </c>
-      <c r="C3" s="16">
+        <v>305</v>
+      </c>
+      <c r="B3" s="10">
+        <v>179</v>
+      </c>
+      <c r="C3" s="12">
         <f>B3/B$6</f>
-        <v>0.39729119638826182</v>
+        <v>0.39866369710467708</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B4" s="9">
-        <v>235</v>
-      </c>
-      <c r="C4" s="16">
+        <v>306</v>
+      </c>
+      <c r="B4" s="10">
+        <v>238</v>
+      </c>
+      <c r="C4" s="12">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
-        <v>0.53047404063205417</v>
+        <v>0.53006681514476617</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B5" s="9">
+        <v>300</v>
+      </c>
+      <c r="B5" s="10">
         <v>32</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="12">
         <f t="shared" si="0"/>
-        <v>7.2234762979683967E-2</v>
+        <v>7.126948775055679E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="9">
-        <v>443</v>
-      </c>
-      <c r="C6" s="16">
+      <c r="B6" s="10">
+        <v>449</v>
+      </c>
+      <c r="C6" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="A8" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="A9" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4461,138 +4617,138 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C9"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B3" s="9">
+        <v>309</v>
+      </c>
+      <c r="B3" s="10">
         <v>6</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="12">
         <f>B3/B$9</f>
-        <v>1.3544018058690745E-2</v>
+        <v>1.3363028953229399E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B4" s="9">
-        <v>60</v>
-      </c>
-      <c r="C4" s="16">
+        <v>310</v>
+      </c>
+      <c r="B4" s="10">
+        <v>61</v>
+      </c>
+      <c r="C4" s="12">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
-        <v>0.13544018058690746</v>
+        <v>0.13585746102449889</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B5" s="9">
-        <v>98</v>
-      </c>
-      <c r="C5" s="16">
+        <v>311</v>
+      </c>
+      <c r="B5" s="10">
+        <v>99</v>
+      </c>
+      <c r="C5" s="12">
         <f t="shared" si="0"/>
-        <v>0.22121896162528218</v>
+        <v>0.22048997772828507</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="C6" s="16">
+        <v>312</v>
+      </c>
+      <c r="B6" s="10">
+        <v>2</v>
+      </c>
+      <c r="C6" s="12">
         <f t="shared" si="0"/>
-        <v>2.257336343115124E-3</v>
+        <v>4.4543429844097994E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="B7" s="9">
-        <v>164</v>
-      </c>
-      <c r="C7" s="16">
+        <v>313</v>
+      </c>
+      <c r="B7" s="10">
+        <v>167</v>
+      </c>
+      <c r="C7" s="12">
         <f t="shared" si="0"/>
-        <v>0.37020316027088035</v>
+        <v>0.37193763919821826</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B8" s="9">
+        <v>300</v>
+      </c>
+      <c r="B8" s="10">
         <v>114</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="12">
         <f t="shared" si="0"/>
-        <v>0.25733634311512416</v>
+        <v>0.25389755011135856</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="9">
-        <v>443</v>
-      </c>
-      <c r="C9" s="16">
+      <c r="B9" s="10">
+        <v>449</v>
+      </c>
+      <c r="C9" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="A11" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="A12" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4607,33 +4763,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="2" t="s">
         <v>260</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -4650,7 +4806,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="6">
         <v>43895</v>
       </c>
       <c r="B3" s="4">
@@ -4667,7 +4823,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="6">
         <v>43896</v>
       </c>
       <c r="B4" s="4">
@@ -4684,7 +4840,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="6">
         <v>43897</v>
       </c>
       <c r="B5" s="4">
@@ -4701,7 +4857,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="6">
         <v>43898</v>
       </c>
       <c r="B6" s="4">
@@ -4718,7 +4874,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="6">
         <v>43899</v>
       </c>
       <c r="B7" s="4">
@@ -4735,7 +4891,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="6">
         <v>43900</v>
       </c>
       <c r="B8" s="4">
@@ -4752,7 +4908,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="6">
         <v>43901</v>
       </c>
       <c r="B9" s="4">
@@ -4769,7 +4925,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="6">
         <v>43902</v>
       </c>
       <c r="B10" s="4">
@@ -4786,7 +4942,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="A11" s="6">
         <v>43903</v>
       </c>
       <c r="B11" s="4">
@@ -4803,7 +4959,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="6">
         <v>43904</v>
       </c>
       <c r="B12" s="4">
@@ -4820,7 +4976,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="A13" s="6">
         <v>43905</v>
       </c>
       <c r="B13" s="4">
@@ -4837,7 +4993,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="A14" s="6">
         <v>43906</v>
       </c>
       <c r="B14" s="4">
@@ -4854,7 +5010,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+      <c r="A15" s="6">
         <v>43907</v>
       </c>
       <c r="B15" s="4">
@@ -4871,7 +5027,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+      <c r="A16" s="6">
         <v>43908</v>
       </c>
       <c r="B16" s="4">
@@ -4888,7 +5044,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
+      <c r="A17" s="6">
         <v>43909</v>
       </c>
       <c r="B17" s="4">
@@ -4905,7 +5061,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+      <c r="A18" s="6">
         <v>43910</v>
       </c>
       <c r="B18" s="4">
@@ -4922,7 +5078,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+      <c r="A19" s="6">
         <v>43911</v>
       </c>
       <c r="B19" s="4">
@@ -4939,7 +5095,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+      <c r="A20" s="6">
         <v>43912</v>
       </c>
       <c r="B20" s="4">
@@ -4956,7 +5112,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
+      <c r="A21" s="6">
         <v>43913</v>
       </c>
       <c r="B21" s="4">
@@ -4973,7 +5129,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
+      <c r="A22" s="6">
         <v>43914</v>
       </c>
       <c r="B22" s="4">
@@ -4990,7 +5146,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
+      <c r="A23" s="6">
         <v>43915</v>
       </c>
       <c r="B23" s="4">
@@ -5007,7 +5163,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
+      <c r="A24" s="6">
         <v>43916</v>
       </c>
       <c r="B24" s="4">
@@ -5024,7 +5180,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+      <c r="A25" s="6">
         <v>43917</v>
       </c>
       <c r="B25" s="4">
@@ -5041,7 +5197,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
+      <c r="A26" s="6">
         <v>43918</v>
       </c>
       <c r="B26" s="4">
@@ -5058,7 +5214,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14">
+      <c r="A27" s="6">
         <v>43919</v>
       </c>
       <c r="B27" s="4">
@@ -5075,7 +5231,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14">
+      <c r="A28" s="6">
         <v>43920</v>
       </c>
       <c r="B28" s="4">
@@ -5092,7 +5248,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
+      <c r="A29" s="6">
         <v>43921</v>
       </c>
       <c r="B29" s="4">
@@ -5109,7 +5265,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14">
+      <c r="A30" s="6">
         <v>43922</v>
       </c>
       <c r="B30" s="4">
@@ -5126,7 +5282,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
+      <c r="A31" s="6">
         <v>43923</v>
       </c>
       <c r="B31" s="4">
@@ -5143,7 +5299,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14">
+      <c r="A32" s="6">
         <v>43924</v>
       </c>
       <c r="B32" s="4">
@@ -5160,7 +5316,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
+      <c r="A33" s="6">
         <v>43925</v>
       </c>
       <c r="B33" s="4">
@@ -5177,7 +5333,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
+      <c r="A34" s="6">
         <v>43926</v>
       </c>
       <c r="B34" s="4">
@@ -5194,7 +5350,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
+      <c r="A35" s="6">
         <v>43927</v>
       </c>
       <c r="B35" s="4">
@@ -5211,7 +5367,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14">
+      <c r="A36" s="6">
         <v>43928</v>
       </c>
       <c r="B36" s="4">
@@ -5228,7 +5384,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14">
+      <c r="A37" s="6">
         <v>43929</v>
       </c>
       <c r="B37" s="4">
@@ -5245,7 +5401,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
+      <c r="A38" s="6">
         <v>43930</v>
       </c>
       <c r="B38" s="4">
@@ -5262,7 +5418,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14">
+      <c r="A39" s="6">
         <v>43931</v>
       </c>
       <c r="B39" s="4">
@@ -5279,7 +5435,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14">
+      <c r="A40" s="6">
         <v>43932</v>
       </c>
       <c r="B40" s="4">
@@ -5296,7 +5452,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14">
+      <c r="A41" s="6">
         <v>43933</v>
       </c>
       <c r="B41" s="4">
@@ -5313,7 +5469,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14">
+      <c r="A42" s="6">
         <v>43934</v>
       </c>
       <c r="B42" s="4">
@@ -5330,7 +5486,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14">
+      <c r="A43" s="6">
         <v>43935</v>
       </c>
       <c r="B43" s="4">
@@ -5347,7 +5503,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14">
+      <c r="A44" s="6">
         <v>43936</v>
       </c>
       <c r="B44" s="4">
@@ -5364,7 +5520,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14">
+      <c r="A45" s="6">
         <v>43937</v>
       </c>
       <c r="B45" s="4">
@@ -5381,7 +5537,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14">
+      <c r="A46" s="6">
         <v>43938</v>
       </c>
       <c r="B46" s="4">
@@ -5398,7 +5554,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14">
+      <c r="A47" s="6">
         <v>43939</v>
       </c>
       <c r="B47" s="4">
@@ -5415,7 +5571,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14">
+      <c r="A48" s="6">
         <v>43940</v>
       </c>
       <c r="B48" s="4">
@@ -5432,7 +5588,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14">
+      <c r="A49" s="6">
         <v>43941</v>
       </c>
       <c r="B49" s="4">
@@ -5449,7 +5605,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14">
+      <c r="A50" s="6">
         <v>43942</v>
       </c>
       <c r="B50" s="4">
@@ -5466,7 +5622,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14">
+      <c r="A51" s="6">
         <v>43943</v>
       </c>
       <c r="B51" s="4">
@@ -5483,7 +5639,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14">
+      <c r="A52" s="6">
         <v>43944</v>
       </c>
       <c r="B52" s="4">
@@ -5500,7 +5656,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14">
+      <c r="A53" s="6">
         <v>43945</v>
       </c>
       <c r="B53" s="4">
@@ -5517,7 +5673,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14">
+      <c r="A54" s="6">
         <v>43946</v>
       </c>
       <c r="B54" s="4">
@@ -5534,7 +5690,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14">
+      <c r="A55" s="6">
         <v>43947</v>
       </c>
       <c r="B55" s="4">
@@ -5551,7 +5707,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14">
+      <c r="A56" s="6">
         <v>43948</v>
       </c>
       <c r="B56" s="4">
@@ -5568,7 +5724,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14">
+      <c r="A57" s="6">
         <v>43949</v>
       </c>
       <c r="B57" s="4">
@@ -5585,7 +5741,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="14">
+      <c r="A58" s="6">
         <v>43950</v>
       </c>
       <c r="B58" s="4">
@@ -5602,7 +5758,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="14">
+      <c r="A59" s="6">
         <v>43951</v>
       </c>
       <c r="B59" s="4">
@@ -5619,7 +5775,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14">
+      <c r="A60" s="6">
         <v>43952</v>
       </c>
       <c r="B60" s="4">
@@ -5636,7 +5792,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="14">
+      <c r="A61" s="6">
         <v>43953</v>
       </c>
       <c r="B61" s="4">
@@ -5653,7 +5809,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14">
+      <c r="A62" s="6">
         <v>43954</v>
       </c>
       <c r="B62" s="4">
@@ -5670,7 +5826,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="14">
+      <c r="A63" s="6">
         <v>43955</v>
       </c>
       <c r="B63" s="4">
@@ -5687,7 +5843,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="14">
+      <c r="A64" s="6">
         <v>43956</v>
       </c>
       <c r="B64" s="4">
@@ -5704,7 +5860,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="14">
+      <c r="A65" s="6">
         <v>43957</v>
       </c>
       <c r="B65" s="4">
@@ -5718,6 +5874,23 @@
       </c>
       <c r="E65" s="4">
         <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
+        <v>43958</v>
+      </c>
+      <c r="B66" s="4">
+        <v>35390</v>
+      </c>
+      <c r="C66" s="4">
+        <v>973</v>
+      </c>
+      <c r="D66" s="4">
+        <v>968</v>
+      </c>
+      <c r="E66" s="4">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -5725,18 +5898,18 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5745,33 +5918,33 @@
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="B1" s="11"/>
+    <row r="1" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>17622</v>
-      </c>
-      <c r="B3" s="6">
-        <v>15852</v>
+      <c r="A3" s="7">
+        <v>18440</v>
+      </c>
+      <c r="B3" s="7">
+        <v>15977</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="B5" s="11"/>
+      <c r="A5" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5784,7 +5957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C258"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5801,21 +5974,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5823,10 +5996,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5848,7 +6021,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="4">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5892,7 +6065,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5903,7 +6076,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5914,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5936,7 +6109,7 @@
         <v>30</v>
       </c>
       <c r="C13" s="4">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5966,10 +6139,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C16" s="4">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5977,10 +6150,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>802</v>
+        <v>834</v>
       </c>
       <c r="C17" s="4">
-        <v>802</v>
+        <v>791</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6021,10 +6194,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C21" s="4">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6032,10 +6205,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="C22" s="4">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6043,10 +6216,10 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C23" s="4">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6076,10 +6249,10 @@
         <v>27</v>
       </c>
       <c r="B26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6087,10 +6260,10 @@
         <v>28</v>
       </c>
       <c r="B27" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C27" s="4">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6123,7 +6296,7 @@
         <v>5</v>
       </c>
       <c r="C30" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6153,10 +6326,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="4">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="C33" s="4">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6189,7 +6362,7 @@
         <v>9</v>
       </c>
       <c r="C36" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6197,10 +6370,10 @@
         <v>38</v>
       </c>
       <c r="B37" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C37" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6222,7 +6395,7 @@
         <v>7</v>
       </c>
       <c r="C39" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6285,10 +6458,10 @@
         <v>46</v>
       </c>
       <c r="B45" s="4">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="C45" s="4">
-        <v>233</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6310,7 +6483,7 @@
         <v>8</v>
       </c>
       <c r="C47" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6318,10 +6491,10 @@
         <v>49</v>
       </c>
       <c r="B48" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C48" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6354,7 +6527,7 @@
         <v>3</v>
       </c>
       <c r="C51" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6365,7 +6538,7 @@
         <v>14</v>
       </c>
       <c r="C52" s="4">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6439,10 +6612,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>2124</v>
+        <v>2211</v>
       </c>
       <c r="C59" s="4">
-        <v>2132</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6453,7 +6626,7 @@
         <v>11</v>
       </c>
       <c r="C60" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6464,7 +6637,7 @@
         <v>12</v>
       </c>
       <c r="C61" s="4">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6483,10 +6656,10 @@
         <v>65</v>
       </c>
       <c r="B63" s="4">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="C63" s="4">
-        <v>388</v>
+        <v>404</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6560,10 +6733,10 @@
         <v>71</v>
       </c>
       <c r="B70" s="4">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C70" s="4">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6582,10 +6755,10 @@
         <v>74</v>
       </c>
       <c r="B72" s="4">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C72" s="4">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6593,10 +6766,10 @@
         <v>73</v>
       </c>
       <c r="B73" s="4">
-        <v>514</v>
+        <v>559</v>
       </c>
       <c r="C73" s="4">
-        <v>493</v>
+        <v>499</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6604,7 +6777,7 @@
         <v>75</v>
       </c>
       <c r="B74" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C74" s="4">
         <v>2</v>
@@ -6626,10 +6799,10 @@
         <v>77</v>
       </c>
       <c r="B76" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C76" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6681,10 +6854,10 @@
         <v>82</v>
       </c>
       <c r="B81" s="4">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C81" s="4">
-        <v>973</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6695,7 +6868,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6736,10 +6909,10 @@
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="C86" s="4">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6791,10 +6964,10 @@
         <v>92</v>
       </c>
       <c r="B91" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C91" s="4">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6802,7 +6975,7 @@
         <v>93</v>
       </c>
       <c r="B92" s="4">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C92" s="4">
         <v>52</v>
@@ -6813,10 +6986,10 @@
         <v>94</v>
       </c>
       <c r="B93" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C93" s="4">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6824,10 +6997,10 @@
         <v>95</v>
       </c>
       <c r="B94" s="4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C94" s="4">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6838,7 +7011,7 @@
         <v>5</v>
       </c>
       <c r="C95" s="4">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6846,10 +7019,10 @@
         <v>97</v>
       </c>
       <c r="B96" s="4">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C96" s="4">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6857,10 +7030,10 @@
         <v>98</v>
       </c>
       <c r="B97" s="4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C97" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6912,10 +7085,10 @@
         <v>103</v>
       </c>
       <c r="B102" s="4">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C102" s="4">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6923,10 +7096,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>2612</v>
+        <v>2685</v>
       </c>
       <c r="C103" s="4">
-        <v>4215</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6934,10 +7107,10 @@
         <v>105</v>
       </c>
       <c r="B104" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C104" s="4">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6948,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6989,10 +7162,10 @@
         <v>110</v>
       </c>
       <c r="B109" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C109" s="4">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7000,10 +7173,10 @@
         <v>111</v>
       </c>
       <c r="B110" s="4">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C110" s="4">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7022,10 +7195,10 @@
         <v>113</v>
       </c>
       <c r="B112" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C112" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7058,7 +7231,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7069,7 +7242,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7091,7 +7264,7 @@
         <v>32</v>
       </c>
       <c r="C118" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7099,7 +7272,7 @@
         <v>120</v>
       </c>
       <c r="B119" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C119" s="4">
         <v>13</v>
@@ -7165,10 +7338,10 @@
         <v>126</v>
       </c>
       <c r="B125" s="4">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C125" s="4">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7198,10 +7371,10 @@
         <v>129</v>
       </c>
       <c r="B128" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C128" s="4">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7212,7 +7385,7 @@
         <v>2</v>
       </c>
       <c r="C129" s="4">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7231,10 +7404,10 @@
         <v>132</v>
       </c>
       <c r="B131" s="4">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C131" s="4">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7278,7 +7451,7 @@
         <v>4</v>
       </c>
       <c r="C135" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7319,10 +7492,10 @@
         <v>140</v>
       </c>
       <c r="B139" s="4">
+        <v>5</v>
+      </c>
+      <c r="C139" s="4">
         <v>4</v>
-      </c>
-      <c r="C139" s="4">
-        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7341,10 +7514,10 @@
         <v>143</v>
       </c>
       <c r="B141" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C141" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7385,10 +7558,10 @@
         <v>146</v>
       </c>
       <c r="B145" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C145" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7418,10 +7591,10 @@
         <v>149</v>
       </c>
       <c r="B148" s="4">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C148" s="4">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7451,10 +7624,10 @@
         <v>152</v>
       </c>
       <c r="B151" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C151" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7484,10 +7657,10 @@
         <v>155</v>
       </c>
       <c r="B154" s="4">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="C154" s="4">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7520,7 +7693,7 @@
         <v>81</v>
       </c>
       <c r="C157" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7575,7 +7748,7 @@
         <v>1</v>
       </c>
       <c r="C162" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7605,10 +7778,10 @@
         <v>166</v>
       </c>
       <c r="B165" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C165" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7630,7 +7803,7 @@
         <v>30</v>
       </c>
       <c r="C167" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7674,7 +7847,7 @@
         <v>4</v>
       </c>
       <c r="C171" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7682,10 +7855,10 @@
         <v>173</v>
       </c>
       <c r="B172" s="4">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="C172" s="4">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7693,10 +7866,10 @@
         <v>174</v>
       </c>
       <c r="B173" s="4">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="C173" s="4">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7726,7 +7899,7 @@
         <v>177</v>
       </c>
       <c r="B176" s="4">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C176" s="4">
         <v>106</v>
@@ -7740,7 +7913,7 @@
         <v>22</v>
       </c>
       <c r="C177" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7751,7 +7924,7 @@
         <v>2</v>
       </c>
       <c r="C178" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7770,10 +7943,10 @@
         <v>181</v>
       </c>
       <c r="B180" s="4">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C180" s="4">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7784,7 +7957,7 @@
         <v>0</v>
       </c>
       <c r="C181" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7803,7 +7976,7 @@
         <v>184</v>
       </c>
       <c r="B183" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C183" s="4">
         <v>27</v>
@@ -7825,10 +7998,10 @@
         <v>186</v>
       </c>
       <c r="B185" s="4">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C185" s="4">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7839,7 +8012,7 @@
         <v>18</v>
       </c>
       <c r="C186" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7850,7 +8023,7 @@
         <v>2</v>
       </c>
       <c r="C187" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7861,7 +8034,7 @@
         <v>4</v>
       </c>
       <c r="C188" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7880,7 +8053,7 @@
         <v>191</v>
       </c>
       <c r="B190" s="4">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="C190" s="4">
         <v>787</v>
@@ -7913,10 +8086,10 @@
         <v>194</v>
       </c>
       <c r="B193" s="4">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C193" s="4">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8001,10 +8174,10 @@
         <v>202</v>
       </c>
       <c r="B201" s="4">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C201" s="4">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8023,10 +8196,10 @@
         <v>204</v>
       </c>
       <c r="B203" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C203" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8048,7 +8221,7 @@
         <v>7</v>
       </c>
       <c r="C205" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8067,7 +8240,7 @@
         <v>208</v>
       </c>
       <c r="B207" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" s="4">
         <v>6</v>
@@ -8125,7 +8298,7 @@
         <v>57</v>
       </c>
       <c r="C212" s="4">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8133,10 +8306,10 @@
         <v>214</v>
       </c>
       <c r="B213" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C213" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8147,7 +8320,7 @@
         <v>108</v>
       </c>
       <c r="C214" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8221,7 +8394,7 @@
         <v>222</v>
       </c>
       <c r="B221" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C221" s="4">
         <v>6</v>
@@ -8232,10 +8405,10 @@
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C222" s="4">
-        <v>1894</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8243,10 +8416,10 @@
         <v>224</v>
       </c>
       <c r="B223" s="4">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C223" s="4">
-        <v>214</v>
+        <v>238</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8287,10 +8460,10 @@
         <v>228</v>
       </c>
       <c r="B227" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C227" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8298,10 +8471,10 @@
         <v>229</v>
       </c>
       <c r="B228" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C228" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8309,10 +8482,10 @@
         <v>230</v>
       </c>
       <c r="B229" s="4">
-        <v>579</v>
+        <v>617</v>
       </c>
       <c r="C229" s="4">
-        <v>1184</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8323,7 +8496,7 @@
         <v>6</v>
       </c>
       <c r="C230" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8342,10 +8515,10 @@
         <v>233</v>
       </c>
       <c r="B232" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C232" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8386,10 +8559,10 @@
         <v>237</v>
       </c>
       <c r="B236" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C236" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8397,10 +8570,10 @@
         <v>238</v>
       </c>
       <c r="B237" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C237" s="4">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8411,7 +8584,7 @@
         <v>77</v>
       </c>
       <c r="C238" s="4">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8419,10 +8592,10 @@
         <v>240</v>
       </c>
       <c r="B239" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C239" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8444,7 +8617,7 @@
         <v>23</v>
       </c>
       <c r="C241" s="4">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8452,10 +8625,10 @@
         <v>243</v>
       </c>
       <c r="B242" s="4">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C242" s="4">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8474,7 +8647,7 @@
         <v>245</v>
       </c>
       <c r="B244" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C244" s="4">
         <v>11</v>
@@ -8485,10 +8658,10 @@
         <v>246</v>
       </c>
       <c r="B245" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C245" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8499,7 +8672,7 @@
         <v>1</v>
       </c>
       <c r="C246" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8507,10 +8680,10 @@
         <v>248</v>
       </c>
       <c r="B247" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C247" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8518,10 +8691,10 @@
         <v>249</v>
       </c>
       <c r="B248" s="4">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C248" s="4">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8532,7 +8705,7 @@
         <v>18</v>
       </c>
       <c r="C249" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8554,7 +8727,7 @@
         <v>9</v>
       </c>
       <c r="C251" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8595,10 +8768,10 @@
         <v>256</v>
       </c>
       <c r="B255" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C255" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8613,11 +8786,11 @@
       </c>
     </row>
     <row r="258" spans="1:3" ht="130" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="B258" s="11"/>
-      <c r="C258" s="11"/>
+      <c r="A258" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B258" s="14"/>
+      <c r="C258" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8630,13 +8803,13 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:B5"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8646,40 +8819,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="B1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B3" s="6">
-        <v>14358</v>
+        <v>274</v>
+      </c>
+      <c r="B3" s="7">
+        <v>14661</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B4" s="6">
-        <v>424580</v>
+        <v>275</v>
+      </c>
+      <c r="B4" s="7">
+        <v>440501</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="B6" s="11"/>
+      <c r="A6" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8692,7 +8865,427 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>43925</v>
+      </c>
+      <c r="B3" s="11">
+        <v>9.3028117486999999</v>
+      </c>
+      <c r="C3" s="7">
+        <v>63751</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>43926</v>
+      </c>
+      <c r="B4" s="11">
+        <v>11.178618289999999</v>
+      </c>
+      <c r="C4" s="7">
+        <v>70938</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>43927</v>
+      </c>
+      <c r="B5" s="11">
+        <v>9.4582792398999995</v>
+      </c>
+      <c r="C5" s="7">
+        <v>85357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>43928</v>
+      </c>
+      <c r="B6" s="11">
+        <v>10.455481467</v>
+      </c>
+      <c r="C6" s="7">
+        <v>88649</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>43929</v>
+      </c>
+      <c r="B7" s="11">
+        <v>10.285438469000001</v>
+      </c>
+      <c r="C7" s="7">
+        <v>96258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>43930</v>
+      </c>
+      <c r="B8" s="11">
+        <v>9.7399245583000003</v>
+      </c>
+      <c r="C8" s="7">
+        <v>106134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>43931</v>
+      </c>
+      <c r="B9" s="11">
+        <v>10.656161941000001</v>
+      </c>
+      <c r="C9" s="7">
+        <v>115918</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>43932</v>
+      </c>
+      <c r="B10" s="11">
+        <v>11.630204658</v>
+      </c>
+      <c r="C10" s="7">
+        <v>120533</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>43933</v>
+      </c>
+      <c r="B11" s="11">
+        <v>15.846004693999999</v>
+      </c>
+      <c r="C11" s="7">
+        <v>124553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>43934</v>
+      </c>
+      <c r="B12" s="11">
+        <v>12.663481167</v>
+      </c>
+      <c r="C12" s="7">
+        <v>133226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>43935</v>
+      </c>
+      <c r="B13" s="11">
+        <v>10.498117866999999</v>
+      </c>
+      <c r="C13" s="7">
+        <v>146467</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>43936</v>
+      </c>
+      <c r="B14" s="11">
+        <v>11.520273229000001</v>
+      </c>
+      <c r="C14" s="7">
+        <v>151810</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>43937</v>
+      </c>
+      <c r="B15" s="11">
+        <v>11.222407281000001</v>
+      </c>
+      <c r="C15" s="7">
+        <v>158547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>43938</v>
+      </c>
+      <c r="B16" s="11">
+        <v>9.8157255677999995</v>
+      </c>
+      <c r="C16" s="7">
+        <v>169536</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>43939</v>
+      </c>
+      <c r="B17" s="11">
+        <v>9.2404132647000008</v>
+      </c>
+      <c r="C17" s="7">
+        <v>176239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>43940</v>
+      </c>
+      <c r="B18" s="11">
+        <v>10.138630667999999</v>
+      </c>
+      <c r="C18" s="7">
+        <v>182710</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>43941</v>
+      </c>
+      <c r="B19" s="11">
+        <v>11.004621304</v>
+      </c>
+      <c r="C19" s="7">
+        <v>190394</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>43942</v>
+      </c>
+      <c r="B20" s="11">
+        <v>8.7779208420000003</v>
+      </c>
+      <c r="C20" s="7">
+        <v>205399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>43943</v>
+      </c>
+      <c r="B21" s="11">
+        <v>7.9229342674999996</v>
+      </c>
+      <c r="C21" s="7">
+        <v>216783</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>43944</v>
+      </c>
+      <c r="B22" s="11">
+        <v>8.2334089517999995</v>
+      </c>
+      <c r="C22" s="7">
+        <v>225078</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>43945</v>
+      </c>
+      <c r="B23" s="11">
+        <v>6.8558846595</v>
+      </c>
+      <c r="C23" s="7">
+        <v>242547</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>43946</v>
+      </c>
+      <c r="B24" s="11">
+        <v>6.0544778169000004</v>
+      </c>
+      <c r="C24" s="7">
+        <v>262816</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>43947</v>
+      </c>
+      <c r="B25" s="11">
+        <v>6.0413187428999997</v>
+      </c>
+      <c r="C25" s="7">
+        <v>276021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B26" s="11">
+        <v>5.9928569749999996</v>
+      </c>
+      <c r="C26" s="7">
+        <v>290517</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>43949</v>
+      </c>
+      <c r="B27" s="11">
+        <v>6.1027978133999996</v>
+      </c>
+      <c r="C27" s="7">
+        <v>300384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>43950</v>
+      </c>
+      <c r="B28" s="11">
+        <v>5.6960049937999999</v>
+      </c>
+      <c r="C28" s="7">
+        <v>314790</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>43951</v>
+      </c>
+      <c r="B29" s="11">
+        <v>6.0180278737000004</v>
+      </c>
+      <c r="C29" s="7">
+        <v>330300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>43952</v>
+      </c>
+      <c r="B30" s="11">
+        <v>6.1331624681000001</v>
+      </c>
+      <c r="C30" s="7">
+        <v>351775</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>43953</v>
+      </c>
+      <c r="B31" s="11">
+        <v>5.6304777924999998</v>
+      </c>
+      <c r="C31" s="7">
+        <v>380648</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>43954</v>
+      </c>
+      <c r="B32" s="11">
+        <v>6.2483132253000004</v>
+      </c>
+      <c r="C32" s="7">
+        <v>390560</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>43955</v>
+      </c>
+      <c r="B33" s="11">
+        <v>5.7571906479999999</v>
+      </c>
+      <c r="C33" s="7">
+        <v>407398</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>43956</v>
+      </c>
+      <c r="B34" s="11">
+        <v>5.6173278776000002</v>
+      </c>
+      <c r="C34" s="7">
+        <v>427210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>43957</v>
+      </c>
+      <c r="B35" s="11">
+        <v>5.8312929177999999</v>
+      </c>
+      <c r="C35" s="7">
+        <v>438938</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>43958</v>
+      </c>
+      <c r="B36" s="11">
+        <v>5.8488571382999996</v>
+      </c>
+      <c r="C36" s="7">
+        <v>455162</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddFooter>Tests include those performed by public labs (Laboratory Response Network) and private labs (commercial labs, hospitals, physician offices, and drive-thru sites) reported electronically and non-electronically to DSHS.</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -8708,64 +9301,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="B1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1812</v>
+        <v>279</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1750</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B4" s="6">
-        <v>55583</v>
+        <v>280</v>
+      </c>
+      <c r="B4" s="7">
+        <v>56624</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B5" s="6">
-        <v>18162</v>
+        <v>281</v>
+      </c>
+      <c r="B5" s="7">
+        <v>17902</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1908</v>
+        <v>282</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1959</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B7" s="6">
-        <v>6557</v>
+        <v>283</v>
+      </c>
+      <c r="B7" s="7">
+        <v>6494</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="B9" s="11"/>
+      <c r="A9" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="B9" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8777,8 +9370,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -8795,204 +9388,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>283</v>
+      <c r="A2" s="8" t="s">
+        <v>285</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B3" s="8">
+        <v>288</v>
+      </c>
+      <c r="B3" s="9">
         <v>32</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="12">
         <f>B3/B$16</f>
-        <v>2.5967702669804429E-3</v>
+        <v>2.5532593951966809E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B4" s="8">
-        <v>133</v>
-      </c>
-      <c r="C4" s="16">
+        <v>289</v>
+      </c>
+      <c r="B4" s="9">
+        <v>141</v>
+      </c>
+      <c r="C4" s="12">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
-        <v>1.0792826422137466E-2</v>
+        <v>1.1250299210085375E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B5" s="8">
-        <v>368</v>
-      </c>
-      <c r="C5" s="16">
+        <v>290</v>
+      </c>
+      <c r="B5" s="9">
+        <v>376</v>
+      </c>
+      <c r="C5" s="12">
         <f t="shared" si="0"/>
-        <v>2.9862858070275094E-2</v>
+        <v>3.0000797893560999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1914</v>
-      </c>
-      <c r="C6" s="16">
+        <v>291</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1952</v>
+      </c>
+      <c r="C6" s="12">
         <f t="shared" si="0"/>
-        <v>0.15531932159376774</v>
+        <v>0.15574882310699753</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B7" s="8">
-        <v>2238</v>
-      </c>
-      <c r="C7" s="16">
+        <v>292</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2275</v>
+      </c>
+      <c r="C7" s="12">
         <f t="shared" si="0"/>
-        <v>0.18161162054694474</v>
+        <v>0.18152078512726402</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B8" s="8">
-        <v>2337</v>
-      </c>
-      <c r="C8" s="16">
+        <v>293</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2369</v>
+      </c>
+      <c r="C8" s="12">
         <f t="shared" si="0"/>
-        <v>0.1896453785604155</v>
+        <v>0.18902098460065428</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B9" s="8">
-        <v>2256</v>
-      </c>
-      <c r="C9" s="16">
+        <v>294</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2297</v>
+      </c>
+      <c r="C9" s="12">
         <f t="shared" si="0"/>
-        <v>0.18307230382212122</v>
+        <v>0.18327615096146174</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B10" s="8">
-        <v>942</v>
-      </c>
-      <c r="C10" s="16">
+        <v>295</v>
+      </c>
+      <c r="B10" s="9">
+        <v>955</v>
+      </c>
+      <c r="C10" s="12">
         <f t="shared" si="0"/>
-        <v>7.6442424734236791E-2</v>
+        <v>7.6198835075400942E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B11" s="8">
-        <v>681</v>
-      </c>
-      <c r="C11" s="16">
+        <v>296</v>
+      </c>
+      <c r="B11" s="9">
+        <v>697</v>
+      </c>
+      <c r="C11" s="12">
         <f t="shared" si="0"/>
-        <v>5.5262517244177557E-2</v>
+        <v>5.5613181201627705E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B12" s="8">
-        <v>473</v>
-      </c>
-      <c r="C12" s="16">
+        <v>297</v>
+      </c>
+      <c r="B12" s="9">
+        <v>477</v>
+      </c>
+      <c r="C12" s="12">
         <f t="shared" si="0"/>
-        <v>3.8383510508804675E-2</v>
+        <v>3.8059522859650523E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B13" s="8">
+        <v>298</v>
+      </c>
+      <c r="B13" s="9">
         <v>325</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="12">
         <f t="shared" si="0"/>
-        <v>2.6373448024020123E-2</v>
+        <v>2.5931540732466288E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B14" s="8">
-        <v>583</v>
-      </c>
-      <c r="C14" s="16">
+        <v>299</v>
+      </c>
+      <c r="B14" s="9">
+        <v>596</v>
+      </c>
+      <c r="C14" s="12">
         <f t="shared" si="0"/>
-        <v>4.7309908301549949E-2</v>
+        <v>4.7554456235538181E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B15" s="8">
+        <v>300</v>
+      </c>
+      <c r="B15" s="9">
         <v>41</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="12">
         <f t="shared" si="0"/>
-        <v>3.3271119045686927E-3</v>
+        <v>3.2713636000957472E-3</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B16" s="8">
-        <v>12323</v>
-      </c>
-      <c r="C16" s="16">
+      <c r="B16" s="9">
+        <v>12533</v>
+      </c>
+      <c r="C16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="A18" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
     </row>
     <row r="19" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="A19" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9001,18 +9594,18 @@
     <mergeCell ref="A19:C19"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C6"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9023,84 +9616,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B3" s="8">
-        <v>5903</v>
-      </c>
-      <c r="C3" s="16">
+        <v>305</v>
+      </c>
+      <c r="B3" s="9">
+        <v>6014</v>
+      </c>
+      <c r="C3" s="12">
         <f>B3/B$6</f>
-        <v>0.47902296518704862</v>
+        <v>0.47985318758477619</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B4" s="8">
-        <v>6153</v>
-      </c>
-      <c r="C4" s="16">
+        <v>306</v>
+      </c>
+      <c r="B4" s="9">
+        <v>6252</v>
+      </c>
+      <c r="C4" s="12">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
-        <v>0.49931023289783333</v>
+        <v>0.49884305433655152</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B5" s="8">
+        <v>300</v>
+      </c>
+      <c r="B5" s="9">
         <v>267</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="12">
         <f t="shared" si="0"/>
-        <v>2.1666801915118071E-2</v>
+        <v>2.1303758078672304E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="8">
-        <v>12323</v>
-      </c>
-      <c r="C6" s="16">
+      <c r="B6" s="9">
+        <v>12533</v>
+      </c>
+      <c r="C6" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="A8" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="A9" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9111,148 +9704,4 @@
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B3" s="8">
-        <v>461</v>
-      </c>
-      <c r="C3" s="16">
-        <f>B3/B$9</f>
-        <v>3.7409721658687008E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1881</v>
-      </c>
-      <c r="C4" s="16">
-        <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
-        <v>0.15264140225594416</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B5" s="8">
-        <v>4701</v>
-      </c>
-      <c r="C5" s="16">
-        <f t="shared" si="0"/>
-        <v>0.38148178203359573</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B6" s="8">
-        <v>85</v>
-      </c>
-      <c r="C6" s="16">
-        <f t="shared" si="0"/>
-        <v>6.8976710216668022E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="B7" s="8">
-        <v>3467</v>
-      </c>
-      <c r="C7" s="16">
-        <f t="shared" si="0"/>
-        <v>0.28134382861316237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1728</v>
-      </c>
-      <c r="C8" s="16">
-        <f t="shared" si="0"/>
-        <v>0.14022559441694393</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B9" s="8">
-        <v>12323</v>
-      </c>
-      <c r="C9" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-    </row>
-    <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-  </mergeCells>
-  <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
 </file>